--- a/CH-052 Find missing Numbers.xlsx
+++ b/CH-052 Find missing Numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4158B0C-9F79-4B02-ACC0-8D6D8620E079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02638694-1AF6-44B0-865E-EAAB11075F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Question</t>
   </si>
@@ -80,12 +80,18 @@
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                   7/</t>
   </si>
+  <si>
+    <t>Initial Solution</t>
+  </si>
+  <si>
+    <t>Single Function</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +118,13 @@
       <name val="Aptos Narrow"/>
       <family val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -223,10 +236,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -265,8 +279,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -956,6 +972,33 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{F68412A3-F189-4B60-85C6-9CE6ACE87063}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O74"/>
@@ -1317,7 +1360,7 @@
   <dimension ref="B1:O74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1450,6 +1493,12 @@
         <v>1018</v>
       </c>
       <c r="C15" s="2"/>
+      <c r="D15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="O15" s="1"/>
     </row>
@@ -1470,6 +1519,14 @@
         <f t="array" ref="G17:G21">_xlfn.ANCHORARRAY(E17)=J3:J7</f>
         <v>1</v>
       </c>
+      <c r="J17" cm="1">
+        <f t="array" ref="J17:J21">_xlfn.LET(
+      _xlpm.lst,_xlfn.SEQUENCE(MAX(_nNums)-MIN(_nNums)+1,1,MIN(_nNums)),
+      _xlpm.cmb, _xlfn.VSTACK(_xlpm.lst,_nNums),
+      _xlfn.UNIQUE(_xlpm.cmb,,TRUE)
+)</f>
+        <v>1005</v>
+      </c>
       <c r="K17" t="s">
         <v>4</v>
       </c>
@@ -1486,6 +1543,9 @@
       <c r="G18" t="b">
         <v>1</v>
       </c>
+      <c r="J18">
+        <v>1007</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="O18" s="1"/>
     </row>
@@ -1499,6 +1559,9 @@
       <c r="G19" t="b">
         <v>1</v>
       </c>
+      <c r="J19">
+        <v>1011</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="O19" s="1"/>
     </row>
@@ -1512,6 +1575,9 @@
       <c r="G20" t="b">
         <v>1</v>
       </c>
+      <c r="J20">
+        <v>1014</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="O20" s="1"/>
     </row>
@@ -1524,6 +1590,9 @@
       </c>
       <c r="G21" t="b">
         <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1017</v>
       </c>
       <c r="L21" s="6"/>
       <c r="O21" s="1"/>
